--- a/Agricultura/4.13.xlsx
+++ b/Agricultura/4.13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AAB1ED-CC87-4832-9717-06775C6C5925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5AA028-5170-449C-9DC4-E52A8605EBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4DC39C98-F360-46AB-87A9-B2F027CC5C3D}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Directorio Agroindustria'!$B$1:$R$604</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Directorio Agroindustria'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2561,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0C8205-8548-45EE-8B3D-944F1D5DFE86}">
   <dimension ref="A1:W604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="L605" sqref="L605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22204,7 +22204,7 @@
         <v>263</v>
       </c>
       <c r="L333" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M333" s="1" t="s">
         <v>51</v>
